--- a/src/pad/carpeta_resultados/resultados.xlsx
+++ b/src/pad/carpeta_resultados/resultados.xlsx
@@ -516,30 +516,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[18, 32, 36, 30, 70]</t>
+          <t>[8, 6, 45, 1, 10]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[1, 8, 2, 5], [7, 2, 9, 2], [2, 5, 3, 9], [1, 2, 2, 3]]</t>
+          <t>[[6, 3, 9, 6], [1, 5, 3, 6], [7, 2, 3, 5], [7, 4, 6, 1]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[0.10000000000000003, 0.27058823529411763, 0.6470588235294117, -2.2882352941176465], [0.2, 0.011764705882352943, -0.058823529411764705, -0.16470588235294115], [-0.10000000000000003, -0.09411764705882353, -0.5294117647058824, 1.8176470588235292], [-0.1, -0.03529411764705882, 0.17647058823529413, -0.0058823529411764965]]</t>
+          <t>[[-0.06766917293233082, -0.06766917293233082, 0.15037593984962405, 0.060150375939849635], [-0.15288220551378448, 0.18045112781954886, -0.06766917293233085, 0.17293233082706772], [0.1720969089390142, -0.05012531328320802, -0.14786967418546362, 0.007518796992481197], [0.052631578947368425, 0.05263157894736843, 0.10526315789473686, -0.15789473684210528]]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9476087759517171</v>
+        <v>0.9925465101792172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01174739710619721</v>
+        <v>0.00149753318235335</v>
       </c>
       <c r="H2" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[[37, 88], [97, 14]]</t>
+          <t>[[34, 20], [21, 1]]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[[69, 6, 87], [29, 89, 49], [93, 13, 45]]</t>
+          <t>[[86, 26, 15], [40, 69, 93], [61, 13, 29]]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0.5193893984759642, 0.5621643273555476, 0.5963241152837568]</t>
+          <t>[0.962910700308204, 0.677941039506025, 0.5774577500301139]</t>
         </is>
       </c>
     </row>

--- a/src/pad/carpeta_resultados/resultados.xlsx
+++ b/src/pad/carpeta_resultados/resultados.xlsx
@@ -516,30 +516,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[8, 6, 45, 1, 10]</t>
+          <t>[32, 45, 70, 40, 7]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[6, 3, 9, 6], [1, 5, 3, 6], [7, 2, 3, 5], [7, 4, 6, 1]]</t>
+          <t>[[3, 1, 1, 2], [5, 9, 6, 1], [2, 1, 4, 7], [6, 6, 8, 1]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[-0.06766917293233082, -0.06766917293233082, 0.15037593984962405, 0.060150375939849635], [-0.15288220551378448, 0.18045112781954886, -0.06766917293233085, 0.17293233082706772], [0.1720969089390142, -0.05012531328320802, -0.14786967418546362, 0.007518796992481197], [0.052631578947368425, 0.05263157894736843, 0.10526315789473686, -0.15789473684210528]]</t>
+          <t>[[0.40963855421686735, -0.0740103270223752, -0.1153184165232358, 0.06196213425129089], [-0.04819277108433731, 0.22719449225473323, 0.005163511187607561, -0.16695352839931155], [-0.27710843373493976, -0.1222030981067126, 0.06540447504302926, 0.21858864027538727], [0.048192771084337366, 0.058519793459552494, 0.13769363166953527, -0.11876075731497418]]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9925465101792172</v>
+        <v>0.9948630453069339</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00149753318235335</v>
+        <v>0.003104260808696968</v>
       </c>
       <c r="H2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[[34, 20], [21, 1]]</t>
+          <t>[[82, 87], [53, 53]]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[[86, 26, 15], [40, 69, 93], [61, 13, 29]]</t>
+          <t>[[27, 42, 61], [99, 60, 70], [83, 40, 81]]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0.962910700308204, 0.677941039506025, 0.5774577500301139]</t>
+          <t>[0.565986443167791, 0.9893255781724071, 0.6782008032577342, 0.8292571125989492, 0.558149103699419, 0.8583269991578057, 0.7062552190549537]</t>
         </is>
       </c>
     </row>

--- a/src/pad/carpeta_resultados/resultados.xlsx
+++ b/src/pad/carpeta_resultados/resultados.xlsx
@@ -516,30 +516,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[32, 45, 70, 40, 7]</t>
+          <t>[30, 18, 20, 7, 10]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[3, 1, 1, 2], [5, 9, 6, 1], [2, 1, 4, 7], [6, 6, 8, 1]]</t>
+          <t>[[6, 7, 8, 9], [1, 6, 8, 7], [7, 8, 6, 6], [2, 3, 5, 4]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[0.40963855421686735, -0.0740103270223752, -0.1153184165232358, 0.06196213425129089], [-0.04819277108433731, 0.22719449225473323, 0.005163511187607561, -0.16695352839931155], [-0.27710843373493976, -0.1222030981067126, 0.06540447504302926, 0.21858864027538727], [0.048192771084337366, 0.058519793459552494, 0.13769363166953527, -0.11876075731497418]]</t>
+          <t>[[0.03870967741935474, -0.28387096774193543, 0.058064516129032295, 0.32258064516129026], [-0.17419354838709664, 0.27741935483870966, 0.23870967741935478, -0.4516129032258064], [-0.3032258064516131, -0.10967741935483874, 0.045161290322580754, 0.806451612903226], [0.49032258064516143, 0.07096774193548389, -0.26451612903225813, -0.5806451612903228]]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9948630453069339</v>
+        <v>0.9858578114315083</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003104260808696968</v>
+        <v>0.01373050959033939</v>
       </c>
       <c r="H2" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[[82, 87], [53, 53]]</t>
+          <t>[[92, 12], [78, 52]]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[[27, 42, 61], [99, 60, 70], [83, 40, 81]]</t>
+          <t>[[78, 4, 1], [36, 98, 46], [20, 40, 48]]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0.565986443167791, 0.9893255781724071, 0.6782008032577342, 0.8292571125989492, 0.558149103699419, 0.8583269991578057, 0.7062552190549537]</t>
+          <t>[0.7242479355521734, 0.8802739045600626, 0.6097338371071349, 0.7530097994871033, 0.729362000596221, 0.9899420452577148, 0.8835849157822568]</t>
         </is>
       </c>
     </row>
